--- a/examples/javascript/forms/Test/TestSQLiteEnumWhere/TestSQLiteEnumWhere/Data/Book1.xlsx
+++ b/examples/javascript/forms/Test/TestSQLiteEnumWhere/TestSQLiteEnumWhere/Data/Book1.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="24240" windowHeight="13350" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="FoosStateEnum" sheetId="1" r:id="rId1"/>
+    <sheet name="FooStateEnum" sheetId="1" r:id="rId1"/>
     <sheet name="GooStateEnum" sheetId="2" r:id="rId2"/>
     <sheet name="Middle" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -471,7 +471,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G23" sqref="F23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
